--- a/Task_BaiTap_Bootstrap_Capstone.xlsx
+++ b/Task_BaiTap_Bootstrap_Capstone.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -60,15 +60,12 @@
     <t>Tấn</t>
   </si>
   <si>
-    <t>Dev2</t>
+    <t>Tiến</t>
   </si>
   <si>
     <t xml:space="preserve">     Logo</t>
   </si>
   <si>
-    <t>Nhật Trường</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Navbar</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>GALLERY</t>
-  </si>
-  <si>
-    <t>Tiến</t>
   </si>
   <si>
     <t>OUR SUCCESS</t>
@@ -237,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -283,9 +277,11 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -299,13 +295,9 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -315,15 +307,15 @@
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -604,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="21.75" customHeight="1" collapsed="1">
+    <row r="2" collapsed="1">
       <c r="A2" s="8">
         <v>1.0</v>
       </c>
@@ -626,7 +618,7 @@
         <v>44179.0</v>
       </c>
       <c r="I2" s="15">
-        <v>0.95</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>12</v>
@@ -650,18 +642,18 @@
       <c r="H3" s="14">
         <v>44179.0</v>
       </c>
-      <c r="I3" s="21">
-        <v>0.5</v>
+      <c r="I3" s="15">
+        <v>0.0</v>
       </c>
       <c r="J3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A4" s="21"/>
+      <c r="B4" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="20">
         <v>43608.0</v>
@@ -677,102 +669,101 @@
       <c r="H4" s="14">
         <v>44179.0</v>
       </c>
-      <c r="I4" s="23">
-        <f>SUM(I5:I7)/3</f>
-        <v>0.9</v>
+      <c r="I4" s="15">
+        <v>0.0</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K4" s="17"/>
     </row>
     <row r="5" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A5" s="18"/>
       <c r="B5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="24">
+        <v>15</v>
+      </c>
+      <c r="C5" s="22">
         <v>43608.0</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="12">
         <v>0.0</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="14">
         <v>44179.0</v>
       </c>
-      <c r="I5" s="23">
-        <v>1.0</v>
+      <c r="I5" s="15">
+        <v>0.0</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K5" s="17"/>
     </row>
     <row r="6" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="24">
+        <v>16</v>
+      </c>
+      <c r="C6" s="22">
         <v>43636.0</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="12">
         <v>0.0</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="14">
         <v>44179.0</v>
       </c>
-      <c r="I6" s="23">
-        <v>0.9</v>
+      <c r="I6" s="15">
+        <v>0.0</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" s="17"/>
     </row>
     <row r="7" ht="9.0" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="24">
+        <v>17</v>
+      </c>
+      <c r="C7" s="22">
         <v>43641.0</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="12">
         <v>0.0</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="14">
         <v>44179.0</v>
       </c>
-      <c r="I7" s="23">
-        <v>0.8</v>
+      <c r="I7" s="15">
+        <v>0.0</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="K7" s="24"/>
     </row>
     <row r="8">
       <c r="A8" s="8">
         <v>2.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="20"/>
@@ -787,7 +778,7 @@
         <v>44179.0</v>
       </c>
       <c r="I8" s="15">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>12</v>
@@ -799,7 +790,7 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -811,8 +802,12 @@
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="K9" s="17"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -820,7 +815,7 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -832,8 +827,12 @@
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="K10" s="17"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -841,7 +840,7 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -853,8 +852,12 @@
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="I11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="K11" s="17"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -862,20 +865,24 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="12">
         <v>0.0</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>24</v>
+      <c r="F12" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="I12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="K12" s="17"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -883,20 +890,24 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="12">
         <v>0.0</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>24</v>
+      <c r="F13" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="I13" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="K13" s="17"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -904,70 +915,91 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="12">
         <v>0.0</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>24</v>
+      <c r="F14" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="I14" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="K14" s="17"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="28">
+      <c r="A15" s="25">
         <v>9.0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="12">
         <v>0.0</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="F15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="28">
+      <c r="A16" s="25">
         <v>10.0</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+        <v>26</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="12">
         <v>0.0</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
+      <c r="F16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="J18" s="28"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="J20" s="28"/>
+    </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="31"/>
+      <c r="B21" s="29"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" ht="14.25" customHeight="1"/>
     <row r="23" ht="14.25" customHeight="1"/>
@@ -1940,7 +1972,7 @@
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2 I4:I14">
+  <conditionalFormatting sqref="I2:I16">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>

--- a/Task_BaiTap_Bootstrap_Capstone.xlsx
+++ b/Task_BaiTap_Bootstrap_Capstone.xlsx
@@ -109,9 +109,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
-    <numFmt numFmtId="165" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm"/>
+    <numFmt numFmtId="166" formatCode="dd/MM/yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -148,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +184,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAEABAB"/>
         <bgColor rgb="FFAEABAB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -231,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -254,7 +267,7 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -263,24 +276,18 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -292,25 +299,18 @@
     <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -606,157 +606,145 @@
       <c r="C2" s="10">
         <v>44949.0</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14">
-        <v>44179.0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14">
-        <v>44179.0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="16" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="21"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>43608.0</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14">
-        <v>44179.0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <v>43608.0</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="14">
-        <v>44179.0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>43636.0</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="14">
-        <v>44179.0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="17"/>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" ht="9.0" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>43641.0</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="14">
-        <v>44179.0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="16" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8">
       <c r="A8" s="8">
@@ -765,25 +753,25 @@
       <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="10">
+        <v>44950.0</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
-        <v>44179.0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="17"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="8">
@@ -792,23 +780,27 @@
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="10">
+        <v>44951.0</v>
+      </c>
+      <c r="D9" s="10">
+        <v>44951.0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="17"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="8">
@@ -817,23 +809,27 @@
       <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="C10" s="10">
+        <v>44952.0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>44952.0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="17"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="8">
@@ -842,23 +838,27 @@
       <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="C11" s="10">
+        <v>44952.0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>44952.0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="17"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="8">
@@ -867,23 +867,23 @@
       <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="13" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="8">
@@ -892,23 +892,23 @@
       <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="13" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="8">
@@ -917,89 +917,89 @@
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="13" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="25">
+      <c r="A15" s="8">
         <v>9.0</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="13" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="27"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="25">
+      <c r="A16" s="8">
         <v>10.0</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="16" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="13" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="J17" s="28"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="J18" s="28"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="J19" s="28"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="J20" s="28"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="29"/>
-      <c r="J21" s="28"/>
+      <c r="B21" s="24"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" ht="14.25" customHeight="1"/>
     <row r="23" ht="14.25" customHeight="1"/>

--- a/Task_BaiTap_Bootstrap_Capstone.xlsx
+++ b/Task_BaiTap_Bootstrap_Capstone.xlsx
@@ -606,9 +606,11 @@
       <c r="C2" s="10">
         <v>44949.0</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="10">
+        <v>44958.0</v>
+      </c>
       <c r="E2" s="11">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>11</v>
@@ -756,9 +758,11 @@
       <c r="C8" s="10">
         <v>44950.0</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10">
+        <v>44957.0</v>
+      </c>
       <c r="E8" s="11">
-        <v>0.3</v>
+        <v>1.0</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>11</v>
